--- a/Code/Results/Cases/Case_7_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_51/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.797511941450864</v>
+        <v>1.334803270330582</v>
       </c>
       <c r="C2">
-        <v>0.6776172493121351</v>
+        <v>0.2085835094100901</v>
       </c>
       <c r="D2">
-        <v>0.03570403925067112</v>
+        <v>0.0512292466746338</v>
       </c>
       <c r="E2">
-        <v>0.1731235445133592</v>
+        <v>0.2693357431275629</v>
       </c>
       <c r="F2">
-        <v>2.166411527843664</v>
+        <v>1.777516583494844</v>
       </c>
       <c r="G2">
-        <v>0.0007831383917567987</v>
+        <v>0.0008164234605908508</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7813102823457854</v>
+        <v>1.447892483592057</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.033850456492004</v>
+        <v>0.7072979011343392</v>
       </c>
       <c r="N2">
-        <v>1.263242625515787</v>
+        <v>1.857439454788619</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.411407578052376</v>
+        <v>1.157564728797126</v>
       </c>
       <c r="C3">
-        <v>0.5824600257563759</v>
+        <v>0.1796519017559035</v>
       </c>
       <c r="D3">
-        <v>0.03640126366552465</v>
+        <v>0.05300639630532267</v>
       </c>
       <c r="E3">
-        <v>0.1494506195940488</v>
+        <v>0.2325527202486342</v>
       </c>
       <c r="F3">
-        <v>1.936833467806125</v>
+        <v>1.636846620354433</v>
       </c>
       <c r="G3">
-        <v>0.0007919935226586699</v>
+        <v>0.000823352832180156</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6726619018307929</v>
+        <v>1.252785354026514</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8901313389910399</v>
+        <v>0.6114221393122392</v>
       </c>
       <c r="N3">
-        <v>1.264276757306391</v>
+        <v>1.841435034717534</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.178594570861662</v>
+        <v>1.050397114188684</v>
       </c>
       <c r="C4">
-        <v>0.5250478039024529</v>
+        <v>0.1621437536252728</v>
       </c>
       <c r="D4">
-        <v>0.03690884850824006</v>
+        <v>0.0541084457718064</v>
       </c>
       <c r="E4">
-        <v>0.1353038651597629</v>
+        <v>0.2104237567979155</v>
       </c>
       <c r="F4">
-        <v>1.800656783560584</v>
+        <v>1.553353479975655</v>
       </c>
       <c r="G4">
-        <v>0.0007975620024851435</v>
+        <v>0.0008277265979751642</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6071369135065865</v>
+        <v>1.134786521582186</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.8036758402902251</v>
+        <v>0.5535692135235948</v>
       </c>
       <c r="N4">
-        <v>1.267083104692645</v>
+        <v>1.833665926664594</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.084638492777572</v>
+        <v>1.007090365896858</v>
       </c>
       <c r="C5">
-        <v>0.5018667176351244</v>
+        <v>0.1550638980853449</v>
       </c>
       <c r="D5">
-        <v>0.03713394700303851</v>
+        <v>0.05456028418666214</v>
       </c>
       <c r="E5">
-        <v>0.1296232962652581</v>
+        <v>0.2015056073108497</v>
       </c>
       <c r="F5">
-        <v>1.746233517436664</v>
+        <v>1.519990833021012</v>
       </c>
       <c r="G5">
-        <v>0.0007998662415269356</v>
+        <v>0.0008295400166785237</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5806892406172182</v>
+        <v>1.087094547738729</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7688299625479473</v>
+        <v>0.5302156918365171</v>
       </c>
       <c r="N5">
-        <v>1.268731975536724</v>
+        <v>1.830986159120783</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.069088330796603</v>
+        <v>0.9999199091296873</v>
       </c>
       <c r="C6">
-        <v>0.4980293860488985</v>
+        <v>0.1538913425249291</v>
       </c>
       <c r="D6">
-        <v>0.03717237978510468</v>
+        <v>0.05463547792079471</v>
       </c>
       <c r="E6">
-        <v>0.1286847704345391</v>
+        <v>0.200030351759672</v>
       </c>
       <c r="F6">
-        <v>1.737257518158074</v>
+        <v>1.514489205339984</v>
       </c>
       <c r="G6">
-        <v>0.0008002510300340049</v>
+        <v>0.0008298430416663657</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5763117776064348</v>
+        <v>1.079197469328847</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.763065342690183</v>
+        <v>0.5263503421481488</v>
       </c>
       <c r="N6">
-        <v>1.269035165470555</v>
+        <v>1.830569683550337</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.177323925452697</v>
+        <v>1.04981165247986</v>
       </c>
       <c r="C7">
-        <v>0.5247343562277536</v>
+        <v>0.1620480621415794</v>
       </c>
       <c r="D7">
-        <v>0.03691181251103615</v>
+        <v>0.05411452828731367</v>
       </c>
       <c r="E7">
-        <v>0.1352269302115552</v>
+        <v>0.2103030993662571</v>
       </c>
       <c r="F7">
-        <v>1.799918648204383</v>
+        <v>1.552900940462933</v>
       </c>
       <c r="G7">
-        <v>0.0007975929338179577</v>
+        <v>0.0008277509271677282</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6067792563415964</v>
+        <v>1.1341418118717</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.8032044166547649</v>
+        <v>0.5532534029492169</v>
       </c>
       <c r="N7">
-        <v>1.267103347272297</v>
+        <v>1.833627857277065</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.663402841942172</v>
+        <v>1.273314897990076</v>
       </c>
       <c r="C8">
-        <v>0.6445709362459979</v>
+        <v>0.198548796228593</v>
       </c>
       <c r="D8">
-        <v>0.03592683932009422</v>
+        <v>0.05183975342203961</v>
       </c>
       <c r="E8">
-        <v>0.164872027521298</v>
+        <v>0.2565488581627378</v>
       </c>
       <c r="F8">
-        <v>2.08617555303546</v>
+        <v>1.72837701300044</v>
       </c>
       <c r="G8">
-        <v>0.0007861656297771778</v>
+        <v>0.0008187886895091905</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7435745514974741</v>
+        <v>1.380209743492401</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9838841862779475</v>
+        <v>0.6740083793535945</v>
       </c>
       <c r="N8">
-        <v>1.263122768441576</v>
+        <v>1.85147451171018</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.658144879717838</v>
+        <v>1.727328087490122</v>
       </c>
       <c r="C9">
-        <v>0.8896709744003886</v>
+        <v>0.2726309858130662</v>
       </c>
       <c r="D9">
-        <v>0.03471562266252803</v>
+        <v>0.04746543601125985</v>
       </c>
       <c r="E9">
-        <v>0.2267690211071027</v>
+        <v>0.3516056274226642</v>
       </c>
       <c r="F9">
-        <v>2.692246230548363</v>
+        <v>2.09841514545532</v>
       </c>
       <c r="G9">
-        <v>0.0007646986250601382</v>
+        <v>0.0008021035444142518</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.023460074711394</v>
+        <v>1.879917079192637</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.355656414235511</v>
+        <v>0.9205167717709273</v>
       </c>
       <c r="N9">
-        <v>1.274606953250611</v>
+        <v>1.904341764953429</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.42665702104199</v>
+        <v>2.0744478784855</v>
       </c>
       <c r="C10">
-        <v>1.079177008306004</v>
+        <v>0.3293203821947657</v>
       </c>
       <c r="D10">
-        <v>0.03441102034661014</v>
+        <v>0.04430613547042661</v>
       </c>
       <c r="E10">
-        <v>0.2756288355437988</v>
+        <v>0.4252757420026612</v>
       </c>
       <c r="F10">
-        <v>3.1755177111975</v>
+        <v>2.390852253562642</v>
       </c>
       <c r="G10">
-        <v>0.0007493420093052783</v>
+        <v>0.000790302782435116</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.239721039238489</v>
+        <v>2.262007796015382</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.644652923697024</v>
+        <v>1.110107404774396</v>
       </c>
       <c r="N10">
-        <v>1.298080225054576</v>
+        <v>1.956458112556021</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.787713223386959</v>
+        <v>2.236306411958026</v>
       </c>
       <c r="C11">
-        <v>1.16830587742129</v>
+        <v>0.3557876565315325</v>
       </c>
       <c r="D11">
-        <v>0.03443970907397897</v>
+        <v>0.04288172500432097</v>
       </c>
       <c r="E11">
-        <v>0.2988827168872064</v>
+        <v>0.4599210045993374</v>
       </c>
       <c r="F11">
-        <v>3.406454244933002</v>
+        <v>2.529558605809427</v>
       </c>
       <c r="G11">
-        <v>0.0007424043633825761</v>
+        <v>0.0007850125892055155</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.341347383335005</v>
+        <v>2.440212281615345</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.780950536262026</v>
+        <v>1.198849604365492</v>
       </c>
       <c r="N11">
-        <v>1.312893606015706</v>
+        <v>1.983653519074323</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.926403766828969</v>
+        <v>2.298260402698531</v>
       </c>
       <c r="C12">
-        <v>1.202562892985156</v>
+        <v>0.3659254743323288</v>
       </c>
       <c r="D12">
-        <v>0.03447873517571765</v>
+        <v>0.04234432084298412</v>
       </c>
       <c r="E12">
-        <v>0.307865133244043</v>
+        <v>0.4732316084643671</v>
       </c>
       <c r="F12">
-        <v>3.495778736938377</v>
+        <v>2.583012652173693</v>
       </c>
       <c r="G12">
-        <v>0.0007397801044741185</v>
+        <v>0.0007830185816333178</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.380389893210719</v>
+        <v>2.508431672677801</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.83339442427409</v>
+        <v>1.23287464583828</v>
       </c>
       <c r="N12">
-        <v>1.319184155520631</v>
+        <v>1.994510614991071</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.896441211667764</v>
+        <v>2.284886470633126</v>
       </c>
       <c r="C13">
-        <v>1.195161022079049</v>
+        <v>0.363736685383202</v>
       </c>
       <c r="D13">
-        <v>0.03446900415919529</v>
+        <v>0.04245996897510018</v>
       </c>
       <c r="E13">
-        <v>0.3059222393134036</v>
+        <v>0.4703559380846372</v>
       </c>
       <c r="F13">
-        <v>3.476452869635381</v>
+        <v>2.571457111847224</v>
       </c>
       <c r="G13">
-        <v>0.0007403452286801417</v>
+        <v>0.0007834476477216958</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.371954922160143</v>
+        <v>2.493704796277711</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.82206033836755</v>
+        <v>1.225526995136136</v>
       </c>
       <c r="N13">
-        <v>1.317797560822086</v>
+        <v>1.992146506809036</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.799081965929133</v>
+        <v>2.241389569575915</v>
       </c>
       <c r="C14">
-        <v>1.171113545144863</v>
+        <v>0.3566192829393913</v>
       </c>
       <c r="D14">
-        <v>0.03444232914794298</v>
+        <v>0.0428374715113371</v>
       </c>
       <c r="E14">
-        <v>0.2996179820927836</v>
+        <v>0.4610120689060651</v>
       </c>
       <c r="F14">
-        <v>3.413763720838688</v>
+        <v>2.533936991030004</v>
       </c>
       <c r="G14">
-        <v>0.0007421884318607808</v>
+        <v>0.0007848483670580553</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.344547658273768</v>
+        <v>2.445809305395045</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.785247616598895</v>
+        <v>1.201640063883858</v>
       </c>
       <c r="N14">
-        <v>1.313396940674863</v>
+        <v>1.984535187322592</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.739712999996812</v>
+        <v>2.214835587006235</v>
       </c>
       <c r="C15">
-        <v>1.156452422610471</v>
+        <v>0.3522752343243383</v>
       </c>
       <c r="D15">
-        <v>0.03442979216378106</v>
+        <v>0.04306896719144593</v>
       </c>
       <c r="E15">
-        <v>0.2957803905509309</v>
+        <v>0.4553144811445051</v>
       </c>
       <c r="F15">
-        <v>3.375617834168906</v>
+        <v>2.511079385877693</v>
       </c>
       <c r="G15">
-        <v>0.0007433176910255019</v>
+        <v>0.0007857074943787897</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.327835656702192</v>
+        <v>2.416571299729867</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.76281138008747</v>
+        <v>1.187065309943023</v>
       </c>
       <c r="N15">
-        <v>1.310792921046399</v>
+        <v>1.97994762185678</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.403317865729548</v>
+        <v>2.063957309490945</v>
       </c>
       <c r="C16">
-        <v>1.073418045493639</v>
+        <v>0.3276058031150058</v>
       </c>
       <c r="D16">
-        <v>0.03441284612764051</v>
+        <v>0.04439949292394019</v>
       </c>
       <c r="E16">
-        <v>0.2741321823364373</v>
+        <v>0.4230367236346879</v>
       </c>
       <c r="F16">
-        <v>3.160671565712477</v>
+        <v>2.381911022951982</v>
       </c>
       <c r="G16">
-        <v>0.0007497960372913588</v>
+        <v>0.0007906499176533829</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.23315240836628</v>
+        <v>2.250458828248469</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.635853945066629</v>
+        <v>1.104363204050237</v>
       </c>
       <c r="N16">
-        <v>1.297202433512282</v>
+        <v>1.954755750474334</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.200096878181398</v>
+        <v>1.972473745250625</v>
       </c>
       <c r="C17">
-        <v>1.023284372240539</v>
+        <v>0.312657681960161</v>
       </c>
       <c r="D17">
-        <v>0.03444799190365444</v>
+        <v>0.0452190912892787</v>
       </c>
       <c r="E17">
-        <v>0.2611340135306079</v>
+        <v>0.4035444879643322</v>
       </c>
       <c r="F17">
-        <v>3.031835741189894</v>
+        <v>2.304200297701158</v>
       </c>
       <c r="G17">
-        <v>0.0007537799297350836</v>
+        <v>0.0007937006008938759</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.175960256494648</v>
+        <v>2.149750134863979</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.559297637736435</v>
+        <v>1.054308915914099</v>
       </c>
       <c r="N17">
-        <v>1.289981660687673</v>
+        <v>1.940233261132647</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.084266165343138</v>
+        <v>1.920220617867471</v>
       </c>
       <c r="C18">
-        <v>0.9947179587473727</v>
+        <v>0.3041226566068076</v>
       </c>
       <c r="D18">
-        <v>0.03448366467675612</v>
+        <v>0.04569169276159979</v>
       </c>
       <c r="E18">
-        <v>0.2537525243061154</v>
+        <v>0.3924377600543849</v>
       </c>
       <c r="F18">
-        <v>2.958758049364462</v>
+        <v>2.260029847590786</v>
       </c>
       <c r="G18">
-        <v>0.0007560761664901582</v>
+        <v>0.0007954627463936944</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.143364332523774</v>
+        <v>2.092231293410379</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.515709971338964</v>
+        <v>1.02574991707791</v>
       </c>
       <c r="N18">
-        <v>1.286211805893672</v>
+        <v>1.932204757711602</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.045220394259388</v>
+        <v>1.902588757782809</v>
       </c>
       <c r="C19">
-        <v>0.9850896880350604</v>
+        <v>0.3012431166157228</v>
       </c>
       <c r="D19">
-        <v>0.03449828401715038</v>
+        <v>0.04585190807937689</v>
       </c>
       <c r="E19">
-        <v>0.251268737333227</v>
+        <v>0.3886943855042873</v>
       </c>
       <c r="F19">
-        <v>2.934183470719972</v>
+        <v>2.245161722312361</v>
       </c>
       <c r="G19">
-        <v>0.0007568545722551379</v>
+        <v>0.0007960607180731332</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.132376775956146</v>
+        <v>2.072823121221603</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.501024635790927</v>
+        <v>1.016118237693107</v>
       </c>
       <c r="N19">
-        <v>1.284998816263396</v>
+        <v>1.929540530533359</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.221618583124496</v>
+        <v>1.982173825187601</v>
       </c>
       <c r="C20">
-        <v>1.028592752440687</v>
+        <v>0.3142423209692424</v>
       </c>
       <c r="D20">
-        <v>0.03444262325768932</v>
+        <v>0.0451317195225478</v>
       </c>
       <c r="E20">
-        <v>0.262507693160849</v>
+        <v>0.405608440326624</v>
       </c>
       <c r="F20">
-        <v>3.045442538535582</v>
+        <v>2.312417448652411</v>
       </c>
       <c r="G20">
-        <v>0.0007533553674270675</v>
+        <v>0.0007933750904848028</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.182016842055447</v>
+        <v>2.160427984409296</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.567400160098273</v>
+        <v>1.059612961713384</v>
       </c>
       <c r="N20">
-        <v>1.290710065921473</v>
+        <v>1.941745231982949</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.827622582361926</v>
+        <v>2.254146908017617</v>
       </c>
       <c r="C21">
-        <v>1.178162392519766</v>
+        <v>0.3587065581590707</v>
       </c>
       <c r="D21">
-        <v>0.03444936344904193</v>
+        <v>0.04272653440037733</v>
       </c>
       <c r="E21">
-        <v>0.3014646460060035</v>
+        <v>0.4637511569280974</v>
       </c>
       <c r="F21">
-        <v>3.432123753635949</v>
+        <v>2.544931383113379</v>
       </c>
       <c r="G21">
-        <v>0.0007416469956500796</v>
+        <v>0.0007844367067361569</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.352581867881938</v>
+        <v>2.45985645739529</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.796036661765072</v>
+        <v>1.208644302221927</v>
       </c>
       <c r="N21">
-        <v>1.314670269793467</v>
+        <v>1.986755160308292</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.235328248477515</v>
+        <v>2.435805232456914</v>
       </c>
       <c r="C22">
-        <v>1.278913418120396</v>
+        <v>0.3884479669412713</v>
       </c>
       <c r="D22">
-        <v>0.03462039880918155</v>
+        <v>0.04116631241858659</v>
       </c>
       <c r="E22">
-        <v>0.3279721191005933</v>
+        <v>0.5028810683250597</v>
       </c>
       <c r="F22">
-        <v>3.695926490064892</v>
+        <v>2.702369635837954</v>
       </c>
       <c r="G22">
-        <v>0.0007340093212404586</v>
+        <v>0.0007786479445237236</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.467366598226647</v>
+        <v>2.65990586081017</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.950386739690344</v>
+        <v>1.308528747208285</v>
       </c>
       <c r="N22">
-        <v>1.334349757386761</v>
+        <v>2.019460509012163</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.016543640813495</v>
+        <v>2.338459407303503</v>
       </c>
       <c r="C23">
-        <v>1.224834303443004</v>
+        <v>0.3725056712408445</v>
       </c>
       <c r="D23">
-        <v>0.03451230569102748</v>
+        <v>0.04199789639351881</v>
       </c>
       <c r="E23">
-        <v>0.3137179414040716</v>
+        <v>0.4818829410294043</v>
       </c>
       <c r="F23">
-        <v>3.554012072733798</v>
+        <v>2.617799900011164</v>
       </c>
       <c r="G23">
-        <v>0.000738085876084682</v>
+        <v>0.0007817333694195982</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.40576673107303</v>
+        <v>2.552698827185196</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.867505928931337</v>
+        <v>1.254969007371159</v>
       </c>
       <c r="N23">
-        <v>1.323446359301769</v>
+        <v>2.001683353400239</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.211885517342125</v>
+        <v>1.977787360739825</v>
       </c>
       <c r="C24">
-        <v>1.02619204233946</v>
+        <v>0.3135257236757809</v>
       </c>
       <c r="D24">
-        <v>0.03444500254765259</v>
+        <v>0.04517121593792606</v>
       </c>
       <c r="E24">
-        <v>0.261886370245989</v>
+        <v>0.4046750192731352</v>
       </c>
       <c r="F24">
-        <v>3.039287836887894</v>
+        <v>2.308700905497531</v>
       </c>
       <c r="G24">
-        <v>0.0007535472935085449</v>
+        <v>0.0007935222277658069</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.179277779979714</v>
+        <v>2.155599353094544</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.56373569416489</v>
+        <v>1.057214328503917</v>
       </c>
       <c r="N24">
-        <v>1.290379572099624</v>
+        <v>1.941060675395164</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.383413432955479</v>
+        <v>1.602436044352743</v>
       </c>
       <c r="C25">
-        <v>0.8219716704790017</v>
+        <v>0.2522505096912369</v>
       </c>
       <c r="D25">
-        <v>0.03495244783531959</v>
+        <v>0.04863945861837582</v>
       </c>
       <c r="E25">
-        <v>0.2095177872752529</v>
+        <v>0.325309540506332</v>
       </c>
       <c r="F25">
-        <v>2.522475832493967</v>
+        <v>1.995071280999724</v>
       </c>
       <c r="G25">
-        <v>0.0007704204218353495</v>
+        <v>0.0008065303229507065</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9461606326397742</v>
+        <v>1.742458777579827</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.252716124865799</v>
+        <v>0.8525419586117522</v>
       </c>
       <c r="N25">
-        <v>1.269122914087916</v>
+        <v>1.887895814473652</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_51/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.334803270330582</v>
+        <v>0.8760471161656369</v>
       </c>
       <c r="C2">
-        <v>0.2085835094100901</v>
+        <v>0.1790104523473559</v>
       </c>
       <c r="D2">
-        <v>0.0512292466746338</v>
+        <v>0.04924255720634108</v>
       </c>
       <c r="E2">
-        <v>0.2693357431275629</v>
+        <v>0.3527778503357695</v>
       </c>
       <c r="F2">
-        <v>1.777516583494844</v>
+        <v>0.7188338332593887</v>
       </c>
       <c r="G2">
-        <v>0.0008164234605908508</v>
+        <v>0.6292934305683815</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0002147881480840663</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.4534005740629112</v>
       </c>
       <c r="K2">
-        <v>1.447892483592057</v>
+        <v>0.4043170902997204</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7072979011343392</v>
+        <v>1.015234592175915</v>
       </c>
       <c r="N2">
-        <v>1.857439454788619</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.622616463941867</v>
+      </c>
+      <c r="P2">
+        <v>0.8645811073742777</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.157564728797126</v>
+        <v>0.7610553334557437</v>
       </c>
       <c r="C3">
-        <v>0.1796519017559035</v>
+        <v>0.1558118987224617</v>
       </c>
       <c r="D3">
-        <v>0.05300639630532267</v>
+        <v>0.04564058245561498</v>
       </c>
       <c r="E3">
-        <v>0.2325527202486342</v>
+        <v>0.3087445481325091</v>
       </c>
       <c r="F3">
-        <v>1.636846620354433</v>
+        <v>0.6701297575050518</v>
       </c>
       <c r="G3">
-        <v>0.000823352832180156</v>
+        <v>0.5887831374120793</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>7.480406960524988E-09</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.439602118826059</v>
       </c>
       <c r="K3">
-        <v>1.252785354026514</v>
+        <v>0.3929159252411338</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6114221393122392</v>
+        <v>0.8821841263618069</v>
       </c>
       <c r="N3">
-        <v>1.841435034717534</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.5419794376352343</v>
+      </c>
+      <c r="P3">
+        <v>0.8963025467071724</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.050397114188684</v>
+        <v>0.6906024749320352</v>
       </c>
       <c r="C4">
-        <v>0.1621437536252728</v>
+        <v>0.1416045995690638</v>
       </c>
       <c r="D4">
-        <v>0.0541084457718064</v>
+        <v>0.04340524271335156</v>
       </c>
       <c r="E4">
-        <v>0.2104237567979155</v>
+        <v>0.2817463805848277</v>
       </c>
       <c r="F4">
-        <v>1.553353479975655</v>
+        <v>0.6411571661731728</v>
       </c>
       <c r="G4">
-        <v>0.0008277265979751642</v>
+        <v>0.5647800596146055</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>8.933304858893543E-05</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4316570496803536</v>
       </c>
       <c r="K4">
-        <v>1.134786521582186</v>
+        <v>0.3864673643602821</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5535692135235948</v>
+        <v>0.8006717332748963</v>
       </c>
       <c r="N4">
-        <v>1.833665926664594</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.4925458269042693</v>
+      </c>
+      <c r="P4">
+        <v>0.9165944157779258</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.007090365896858</v>
+        <v>0.661920174964564</v>
       </c>
       <c r="C5">
-        <v>0.1550638980853449</v>
+        <v>0.1358215451461291</v>
       </c>
       <c r="D5">
-        <v>0.05456028418666214</v>
+        <v>0.04248829033961243</v>
       </c>
       <c r="E5">
-        <v>0.2015056073108497</v>
+        <v>0.270749231907395</v>
       </c>
       <c r="F5">
-        <v>1.519990833021012</v>
+        <v>0.6295706235131036</v>
       </c>
       <c r="G5">
-        <v>0.0008295400166785237</v>
+        <v>0.555203646482866</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.000178172346157135</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.428545696506049</v>
       </c>
       <c r="K5">
-        <v>1.087094547738729</v>
+        <v>0.3839714502605887</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5302156918365171</v>
+        <v>0.7674873675345282</v>
       </c>
       <c r="N5">
-        <v>1.830986159120783</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.472413914912039</v>
+      </c>
+      <c r="P5">
+        <v>0.925062369250778</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9999199091296873</v>
+        <v>0.6571588830285009</v>
       </c>
       <c r="C6">
-        <v>0.1538913425249291</v>
+        <v>0.1348615921304912</v>
       </c>
       <c r="D6">
-        <v>0.05463547792079471</v>
+        <v>0.04233566476685979</v>
       </c>
       <c r="E6">
-        <v>0.200030351759672</v>
+        <v>0.2689233174384782</v>
       </c>
       <c r="F6">
-        <v>1.514489205339984</v>
+        <v>0.6276595700664487</v>
       </c>
       <c r="G6">
-        <v>0.0008298430416663657</v>
+        <v>0.5536254819423476</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0001960003244660946</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4280365113982327</v>
       </c>
       <c r="K6">
-        <v>1.079197469328847</v>
+        <v>0.383564780020361</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5263503421481488</v>
+        <v>0.7619787322917375</v>
       </c>
       <c r="N6">
-        <v>1.830569683550337</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.4690715973530217</v>
+      </c>
+      <c r="P6">
+        <v>0.9264803057857982</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.04981165247986</v>
+        <v>0.6902155563332144</v>
       </c>
       <c r="C7">
-        <v>0.1620480621415794</v>
+        <v>0.1415265842681066</v>
       </c>
       <c r="D7">
-        <v>0.05411452828731367</v>
+        <v>0.04339290089016146</v>
       </c>
       <c r="E7">
-        <v>0.2103030993662571</v>
+        <v>0.2815980559145501</v>
       </c>
       <c r="F7">
-        <v>1.552900940462933</v>
+        <v>0.6410000335677282</v>
       </c>
       <c r="G7">
-        <v>0.0008277509271677282</v>
+        <v>0.5646500963840566</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>9.032296736743994E-05</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4316145854339624</v>
       </c>
       <c r="K7">
-        <v>1.1341418118717</v>
+        <v>0.3864331782164285</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5532534029492169</v>
+        <v>0.8002240819489543</v>
       </c>
       <c r="N7">
-        <v>1.833627857277065</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.4922742784039968</v>
+      </c>
+      <c r="P7">
+        <v>0.9167078201695205</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.273314897990076</v>
+        <v>0.8363597271665526</v>
       </c>
       <c r="C8">
-        <v>0.198548796228593</v>
+        <v>0.1710022978708281</v>
       </c>
       <c r="D8">
-        <v>0.05183975342203961</v>
+        <v>0.04800547247415921</v>
       </c>
       <c r="E8">
-        <v>0.2565488581627378</v>
+        <v>0.3375841910962762</v>
       </c>
       <c r="F8">
-        <v>1.72837701300044</v>
+        <v>0.7018384129064899</v>
       </c>
       <c r="G8">
-        <v>0.0008187886895091905</v>
+        <v>0.6151362862658374</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>9.286766478511232E-05</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.4485295782358492</v>
       </c>
       <c r="K8">
-        <v>1.380209743492401</v>
+        <v>0.4002672306377235</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6740083793535945</v>
+        <v>0.9693131495461387</v>
       </c>
       <c r="N8">
-        <v>1.85147451171018</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.5947923878000552</v>
+      </c>
+      <c r="P8">
+        <v>0.8753458402466698</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.727328087490122</v>
+        <v>1.124676047788114</v>
       </c>
       <c r="C9">
-        <v>0.2726309858130662</v>
+        <v>0.2292270671181598</v>
       </c>
       <c r="D9">
-        <v>0.04746543601125985</v>
+        <v>0.05686645839730886</v>
       </c>
       <c r="E9">
-        <v>0.3516056274226642</v>
+        <v>0.4479117744513275</v>
       </c>
       <c r="F9">
-        <v>2.09841514545532</v>
+        <v>0.829221602789886</v>
       </c>
       <c r="G9">
-        <v>0.0008021035444142518</v>
+        <v>0.7217075029193296</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.00200238696979449</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.4861821336536707</v>
       </c>
       <c r="K9">
-        <v>1.879917079192637</v>
+        <v>0.4320994099404842</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.9205167717709273</v>
+        <v>1.302967923860592</v>
       </c>
       <c r="N9">
-        <v>1.904341764953429</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.7967840222232425</v>
+      </c>
+      <c r="P9">
+        <v>0.8009835553369768</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.0744478784855</v>
+        <v>1.337662913012309</v>
       </c>
       <c r="C10">
-        <v>0.3293203821947657</v>
+        <v>0.270724830841317</v>
       </c>
       <c r="D10">
-        <v>0.04430613547042661</v>
+        <v>0.0641642546633463</v>
       </c>
       <c r="E10">
-        <v>0.4252757420026612</v>
+        <v>0.4972961852108924</v>
       </c>
       <c r="F10">
-        <v>2.390852253562642</v>
+        <v>0.9174196390715821</v>
       </c>
       <c r="G10">
-        <v>0.000790302782435116</v>
+        <v>0.7933502560750441</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.004689571083765998</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.5109268319780256</v>
       </c>
       <c r="K10">
-        <v>2.262007796015382</v>
+        <v>0.4524091824113938</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.110107404774396</v>
+        <v>1.547301288194234</v>
       </c>
       <c r="N10">
-        <v>1.956458112556021</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.9132242912639157</v>
+      </c>
+      <c r="P10">
+        <v>0.7451125563679355</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.236306411958026</v>
+        <v>1.429286513944191</v>
       </c>
       <c r="C11">
-        <v>0.3557876565315325</v>
+        <v>0.2746635940535782</v>
       </c>
       <c r="D11">
-        <v>0.04288172500432097</v>
+        <v>0.0758780743402383</v>
       </c>
       <c r="E11">
-        <v>0.4599210045993374</v>
+        <v>0.281118347483158</v>
       </c>
       <c r="F11">
-        <v>2.529558605809427</v>
+        <v>0.861722643020812</v>
       </c>
       <c r="G11">
-        <v>0.0007850125892055155</v>
+        <v>0.7230946821450317</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02255270578343982</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.4709248420554104</v>
       </c>
       <c r="K11">
-        <v>2.440212281615345</v>
+        <v>0.408041799009851</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.198849604365492</v>
+        <v>1.632648706742259</v>
       </c>
       <c r="N11">
-        <v>1.983653519074323</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.6989810985645661</v>
+      </c>
+      <c r="P11">
+        <v>0.6780236171255432</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.298260402698531</v>
+        <v>1.461553409497441</v>
       </c>
       <c r="C12">
-        <v>0.3659254743323288</v>
+        <v>0.2692016007066513</v>
       </c>
       <c r="D12">
-        <v>0.04234432084298412</v>
+        <v>0.08509912657175533</v>
       </c>
       <c r="E12">
-        <v>0.4732316084643671</v>
+        <v>0.1449453532021394</v>
       </c>
       <c r="F12">
-        <v>2.583012652173693</v>
+        <v>0.7968346616692088</v>
       </c>
       <c r="G12">
-        <v>0.0007830185816333178</v>
+        <v>0.6508148096277324</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06050349566420721</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.4326944626774321</v>
       </c>
       <c r="K12">
-        <v>2.508431672677801</v>
+        <v>0.3676793911651686</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.23287464583828</v>
+        <v>1.652628414249506</v>
       </c>
       <c r="N12">
-        <v>1.994510614991071</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.519783362537602</v>
+      </c>
+      <c r="P12">
+        <v>0.6420417994446712</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.284886470633126</v>
+        <v>1.449639252942944</v>
       </c>
       <c r="C13">
-        <v>0.363736685383202</v>
+        <v>0.2562349707816196</v>
       </c>
       <c r="D13">
-        <v>0.04245996897510018</v>
+        <v>0.09280320750515614</v>
       </c>
       <c r="E13">
-        <v>0.4703559380846372</v>
+        <v>0.06210366124445343</v>
       </c>
       <c r="F13">
-        <v>2.571457111847224</v>
+        <v>0.7210203354379843</v>
       </c>
       <c r="G13">
-        <v>0.0007834476477216958</v>
+        <v>0.5727239674550475</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1154651923345256</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3935113446096921</v>
       </c>
       <c r="K13">
-        <v>2.493704796277711</v>
+        <v>0.3279184043958736</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.225526995136136</v>
+        <v>1.623212523179859</v>
       </c>
       <c r="N13">
-        <v>1.992146506809036</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.3582090118911623</v>
+      </c>
+      <c r="P13">
+        <v>0.6267542431201705</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.241389569575915</v>
+        <v>1.421366756669215</v>
       </c>
       <c r="C14">
-        <v>0.3566192829393913</v>
+        <v>0.2438661074859709</v>
       </c>
       <c r="D14">
-        <v>0.0428374715113371</v>
+        <v>0.09753645429113789</v>
       </c>
       <c r="E14">
-        <v>0.4610120689060651</v>
+        <v>0.03582354649930464</v>
       </c>
       <c r="F14">
-        <v>2.533936991030004</v>
+        <v>0.6636278712502914</v>
       </c>
       <c r="G14">
-        <v>0.0007848483670580553</v>
+        <v>0.5162270545587404</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1642810098536387</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3659869414414487</v>
       </c>
       <c r="K14">
-        <v>2.445809305395045</v>
+        <v>0.3007624212751416</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.201640063883858</v>
+        <v>1.580429063342876</v>
       </c>
       <c r="N14">
-        <v>1.984535187322592</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.2576009152165319</v>
+      </c>
+      <c r="P14">
+        <v>0.6262441920194739</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.214835587006235</v>
+        <v>1.40506668812273</v>
       </c>
       <c r="C15">
-        <v>0.3522752343243383</v>
+        <v>0.2392800609286496</v>
       </c>
       <c r="D15">
-        <v>0.04306896719144593</v>
+        <v>0.09822783379349431</v>
       </c>
       <c r="E15">
-        <v>0.4553144811445051</v>
+        <v>0.03347649401835401</v>
       </c>
       <c r="F15">
-        <v>2.511079385877693</v>
+        <v>0.6473100356743728</v>
       </c>
       <c r="G15">
-        <v>0.0007857074943787897</v>
+        <v>0.5010355609983606</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1765999105846134</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3590160278224914</v>
       </c>
       <c r="K15">
-        <v>2.416571299729867</v>
+        <v>0.2941278718209865</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.187065309943023</v>
+        <v>1.559567215792185</v>
       </c>
       <c r="N15">
-        <v>1.97994762185678</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.2337442252717068</v>
+      </c>
+      <c r="P15">
+        <v>0.6292434670043603</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.063957309490945</v>
+        <v>1.3154285895763</v>
       </c>
       <c r="C16">
-        <v>0.3276058031150058</v>
+        <v>0.2243746621347071</v>
       </c>
       <c r="D16">
-        <v>0.04439949292394019</v>
+        <v>0.09317167919557079</v>
       </c>
       <c r="E16">
-        <v>0.4230367236346879</v>
+        <v>0.03222335586721187</v>
       </c>
       <c r="F16">
-        <v>2.381911022951982</v>
+        <v>0.6252519678504456</v>
       </c>
       <c r="G16">
-        <v>0.0007906499176533829</v>
+        <v>0.4866827397693072</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1630786147478176</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3563992490670671</v>
       </c>
       <c r="K16">
-        <v>2.250458828248469</v>
+        <v>0.2934526620108855</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.104363204050237</v>
+        <v>1.46051172992793</v>
       </c>
       <c r="N16">
-        <v>1.954755750474334</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.2222991485609036</v>
+      </c>
+      <c r="P16">
+        <v>0.6536154509386529</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.972473745250625</v>
+        <v>1.261898062972165</v>
       </c>
       <c r="C17">
-        <v>0.312657681960161</v>
+        <v>0.2194756526282475</v>
       </c>
       <c r="D17">
-        <v>0.0452190912892787</v>
+        <v>0.08678231044964946</v>
       </c>
       <c r="E17">
-        <v>0.4035444879643322</v>
+        <v>0.03975559743396584</v>
       </c>
       <c r="F17">
-        <v>2.304200297701158</v>
+        <v>0.6387610600793181</v>
       </c>
       <c r="G17">
-        <v>0.0007937006008938759</v>
+        <v>0.5054840373609863</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1249562002937665</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3689885713055219</v>
       </c>
       <c r="K17">
-        <v>2.149750134863979</v>
+        <v>0.3073023458323796</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.054308915914099</v>
+        <v>1.407414569692548</v>
       </c>
       <c r="N17">
-        <v>1.940233261132647</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.2636300487200067</v>
+      </c>
+      <c r="P17">
+        <v>0.6725026522195277</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.920220617867471</v>
+        <v>1.233115708122853</v>
       </c>
       <c r="C18">
-        <v>0.3041226566068076</v>
+        <v>0.2226427235320898</v>
       </c>
       <c r="D18">
-        <v>0.04569169276159979</v>
+        <v>0.07888140546069167</v>
       </c>
       <c r="E18">
-        <v>0.3924377600543849</v>
+        <v>0.0830279674721055</v>
       </c>
       <c r="F18">
-        <v>2.260029847590786</v>
+        <v>0.6849565833983036</v>
       </c>
       <c r="G18">
-        <v>0.0007954627463936944</v>
+        <v>0.5561990306710527</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.0721910460463917</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3965693011221703</v>
       </c>
       <c r="K18">
-        <v>2.092231293410379</v>
+        <v>0.3359923109383054</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.02574991707791</v>
+        <v>1.38747949218731</v>
       </c>
       <c r="N18">
-        <v>1.932204757711602</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.3683528437062336</v>
+      </c>
+      <c r="P18">
+        <v>0.6929864527426171</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.902588757782809</v>
+        <v>1.226328723886809</v>
       </c>
       <c r="C19">
-        <v>0.3012431166157228</v>
+        <v>0.2322311353629658</v>
       </c>
       <c r="D19">
-        <v>0.04585190807937689</v>
+        <v>0.07081791191257025</v>
       </c>
       <c r="E19">
-        <v>0.3886943855042873</v>
+        <v>0.1933711819914521</v>
       </c>
       <c r="F19">
-        <v>2.245161722312361</v>
+        <v>0.7556999213699243</v>
       </c>
       <c r="G19">
-        <v>0.0007960607180731332</v>
+        <v>0.6315241701331473</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.0275299505403126</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.4352783694549061</v>
       </c>
       <c r="K19">
-        <v>2.072823121221603</v>
+        <v>0.3760472325112119</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.016118237693107</v>
+        <v>1.395657491151582</v>
       </c>
       <c r="N19">
-        <v>1.929540530533359</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.5374690596351712</v>
+      </c>
+      <c r="P19">
+        <v>0.7194333798594528</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.982173825187601</v>
+        <v>1.281560632818611</v>
       </c>
       <c r="C20">
-        <v>0.3142423209692424</v>
+        <v>0.2597225543227353</v>
       </c>
       <c r="D20">
-        <v>0.0451317195225478</v>
+        <v>0.06228792052552024</v>
       </c>
       <c r="E20">
-        <v>0.405608440326624</v>
+        <v>0.4829235848255564</v>
       </c>
       <c r="F20">
-        <v>2.312417448652411</v>
+        <v>0.8933542633667031</v>
       </c>
       <c r="G20">
-        <v>0.0007933750904848028</v>
+        <v>0.7736171999581529</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.00386505318761543</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.5039433571996454</v>
       </c>
       <c r="K20">
-        <v>2.160427984409296</v>
+        <v>0.4465612814873339</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.059612961713384</v>
+        <v>1.482843908547267</v>
       </c>
       <c r="N20">
-        <v>1.941745231982949</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.881230183719687</v>
+      </c>
+      <c r="P20">
+        <v>0.7591731677622953</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.254146908017617</v>
+        <v>1.44683332363698</v>
       </c>
       <c r="C21">
-        <v>0.3587065581590707</v>
+        <v>0.2944481237389027</v>
       </c>
       <c r="D21">
-        <v>0.04272653440037733</v>
+        <v>0.06647818243811798</v>
       </c>
       <c r="E21">
-        <v>0.4637511569280974</v>
+        <v>0.5711551695254968</v>
       </c>
       <c r="F21">
-        <v>2.544931383113379</v>
+        <v>0.9807265176048787</v>
       </c>
       <c r="G21">
-        <v>0.0007844367067361569</v>
+        <v>0.8495882921949658</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.006586788687220291</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.5334912742977878</v>
       </c>
       <c r="K21">
-        <v>2.45985645739529</v>
+        <v>0.4732864671572656</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.208644302221927</v>
+        <v>1.675969577175067</v>
       </c>
       <c r="N21">
-        <v>1.986755160308292</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.022121452627125</v>
+      </c>
+      <c r="P21">
+        <v>0.7268268017053359</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.435805232456914</v>
+        <v>1.555107232819893</v>
       </c>
       <c r="C22">
-        <v>0.3884479669412713</v>
+        <v>0.3164135088652245</v>
       </c>
       <c r="D22">
-        <v>0.04116631241858659</v>
+        <v>0.06965182805825521</v>
       </c>
       <c r="E22">
-        <v>0.5028810683250597</v>
+        <v>0.6125876696541397</v>
       </c>
       <c r="F22">
-        <v>2.702369635837954</v>
+        <v>1.033488764946469</v>
       </c>
       <c r="G22">
-        <v>0.0007786479445237236</v>
+        <v>0.8943569118464438</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.008632333946142406</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.5504276795233807</v>
       </c>
       <c r="K22">
-        <v>2.65990586081017</v>
+        <v>0.4882519039421211</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.308528747208285</v>
+        <v>1.801385747853516</v>
       </c>
       <c r="N22">
-        <v>2.019460509012163</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.097772480492978</v>
+      </c>
+      <c r="P22">
+        <v>0.703686585070308</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.338459407303503</v>
+        <v>1.497259366694806</v>
       </c>
       <c r="C23">
-        <v>0.3725056712408445</v>
+        <v>0.3046749845347279</v>
       </c>
       <c r="D23">
-        <v>0.04199789639351881</v>
+        <v>0.0679595148736567</v>
       </c>
       <c r="E23">
-        <v>0.4818829410294043</v>
+        <v>0.5904502562305396</v>
       </c>
       <c r="F23">
-        <v>2.617799900011164</v>
+        <v>1.005191578051637</v>
       </c>
       <c r="G23">
-        <v>0.0007817333694195982</v>
+        <v>0.8703330817056383</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.007509640224589109</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.5413188638161159</v>
       </c>
       <c r="K23">
-        <v>2.552698827185196</v>
+        <v>0.4801908016042162</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.254969007371159</v>
+        <v>1.734375596066002</v>
       </c>
       <c r="N23">
-        <v>2.001683353400239</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.0573593113198</v>
+      </c>
+      <c r="P23">
+        <v>0.7159458515775228</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.977787360739825</v>
+        <v>1.279392055893226</v>
       </c>
       <c r="C24">
-        <v>0.3135257236757809</v>
+        <v>0.2605255478317474</v>
       </c>
       <c r="D24">
-        <v>0.04517121593792606</v>
+        <v>0.0615160082141557</v>
       </c>
       <c r="E24">
-        <v>0.4046750192731352</v>
+        <v>0.5070959945878357</v>
       </c>
       <c r="F24">
-        <v>2.308700905497531</v>
+        <v>0.9009021747437629</v>
       </c>
       <c r="G24">
-        <v>0.0007935222277658069</v>
+        <v>0.7820781930426932</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.003910616052127058</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.5082921448182702</v>
       </c>
       <c r="K24">
-        <v>2.155599353094544</v>
+        <v>0.4512204617483491</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.057214328503917</v>
+        <v>1.482073739993638</v>
       </c>
       <c r="N24">
-        <v>1.941060675395164</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.9050485137812245</v>
+      </c>
+      <c r="P24">
+        <v>0.7643229475598439</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.602436044352743</v>
+        <v>1.046416076611393</v>
       </c>
       <c r="C25">
-        <v>0.2522505096912369</v>
+        <v>0.2134107281853517</v>
       </c>
       <c r="D25">
-        <v>0.04863945861837582</v>
+        <v>0.0544884159984278</v>
       </c>
       <c r="E25">
-        <v>0.325309540506332</v>
+        <v>0.4179727777964004</v>
       </c>
       <c r="F25">
-        <v>1.995071280999724</v>
+        <v>0.7937952142502098</v>
       </c>
       <c r="G25">
-        <v>0.0008065303229507065</v>
+        <v>0.6919695905617971</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.001260228065086633</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.4754722915864704</v>
       </c>
       <c r="K25">
-        <v>1.742458777579827</v>
+        <v>0.422936669806063</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8525419586117522</v>
+        <v>1.21238847742535</v>
       </c>
       <c r="N25">
-        <v>1.887895814473652</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0.7419873746708703</v>
+      </c>
+      <c r="P25">
+        <v>0.8203370590058192</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_51/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8760471161656369</v>
+        <v>0.8175065593820818</v>
       </c>
       <c r="C2">
-        <v>0.1790104523473559</v>
+        <v>0.2075644077786194</v>
       </c>
       <c r="D2">
-        <v>0.04924255720634108</v>
+        <v>0.05312842053847078</v>
       </c>
       <c r="E2">
-        <v>0.3527778503357695</v>
+        <v>0.3543529156058582</v>
       </c>
       <c r="F2">
-        <v>0.7188338332593887</v>
+        <v>0.6590486222931915</v>
       </c>
       <c r="G2">
-        <v>0.6292934305683815</v>
+        <v>0.5448606666834053</v>
       </c>
       <c r="H2">
-        <v>0.0002147881480840663</v>
+        <v>0.0002242912296002153</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4534005740629112</v>
+        <v>0.4559903455543122</v>
       </c>
       <c r="K2">
-        <v>0.4043170902997204</v>
+        <v>0.3528884192709576</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1865489909432263</v>
       </c>
       <c r="M2">
-        <v>1.015234592175915</v>
+        <v>0.09049618050697461</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.622616463941867</v>
+        <v>1.002531944102401</v>
       </c>
       <c r="P2">
-        <v>0.8645811073742777</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.6201028058614639</v>
+      </c>
+      <c r="R2">
+        <v>0.8211992209440915</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7610553334557437</v>
+        <v>0.7152113665094362</v>
       </c>
       <c r="C3">
-        <v>0.1558118987224617</v>
+        <v>0.1782847888721335</v>
       </c>
       <c r="D3">
-        <v>0.04564058245561498</v>
+        <v>0.04842730794855754</v>
       </c>
       <c r="E3">
-        <v>0.3087445481325091</v>
+        <v>0.3107783461868507</v>
       </c>
       <c r="F3">
-        <v>0.6701297575050518</v>
+        <v>0.6184817355978254</v>
       </c>
       <c r="G3">
-        <v>0.5887831374120793</v>
+        <v>0.5141282174238597</v>
       </c>
       <c r="H3">
-        <v>7.480406960524988E-09</v>
+        <v>1.095054774635784E-06</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.439602118826059</v>
+        <v>0.4427482177167263</v>
       </c>
       <c r="K3">
-        <v>0.3929159252411338</v>
+        <v>0.3466125472584025</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1896729754299464</v>
       </c>
       <c r="M3">
-        <v>0.8821841263618069</v>
+        <v>0.08346185844868259</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.5419794376352343</v>
+        <v>0.8728887233170326</v>
       </c>
       <c r="P3">
-        <v>0.8963025467071724</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.5402343413958022</v>
+      </c>
+      <c r="R3">
+        <v>0.8530244952573298</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6906024749320352</v>
+        <v>0.6522870755260044</v>
       </c>
       <c r="C4">
-        <v>0.1416045995690638</v>
+        <v>0.1604440728186063</v>
       </c>
       <c r="D4">
-        <v>0.04340524271335156</v>
+        <v>0.04552866035245273</v>
       </c>
       <c r="E4">
-        <v>0.2817463805848277</v>
+        <v>0.2840393562068613</v>
       </c>
       <c r="F4">
-        <v>0.6411571661731728</v>
+        <v>0.5942603646135041</v>
       </c>
       <c r="G4">
-        <v>0.5647800596146055</v>
+        <v>0.4960304633205226</v>
       </c>
       <c r="H4">
-        <v>8.933304858893543E-05</v>
+        <v>6.098212899141586E-05</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4316570496803536</v>
+        <v>0.4348273844869084</v>
       </c>
       <c r="K4">
-        <v>0.3864673643602821</v>
+        <v>0.3431219435285122</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1916608751573996</v>
       </c>
       <c r="M4">
-        <v>0.8006717332748963</v>
+        <v>0.07986385354994852</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.4925458269042693</v>
+        <v>0.79333792184093</v>
       </c>
       <c r="P4">
-        <v>0.9165944157779258</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.4912374763624783</v>
+      </c>
+      <c r="R4">
+        <v>0.8732784914142098</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.661920174964564</v>
+        <v>0.6266092352595365</v>
       </c>
       <c r="C5">
-        <v>0.1358215451461291</v>
+        <v>0.1532050723652816</v>
       </c>
       <c r="D5">
-        <v>0.04248829033961243</v>
+        <v>0.04434425756438287</v>
       </c>
       <c r="E5">
-        <v>0.270749231907395</v>
+        <v>0.2731429293854504</v>
       </c>
       <c r="F5">
-        <v>0.6295706235131036</v>
+        <v>0.5845513481978415</v>
       </c>
       <c r="G5">
-        <v>0.555203646482866</v>
+        <v>0.4888366212617683</v>
       </c>
       <c r="H5">
-        <v>0.000178172346157135</v>
+        <v>0.0001321360489017209</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.428545696506049</v>
+        <v>0.4316494310320138</v>
       </c>
       <c r="K5">
-        <v>0.3839714502605887</v>
+        <v>0.3417859189653178</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1924882148716947</v>
       </c>
       <c r="M5">
-        <v>0.7674873675345282</v>
+        <v>0.0785754147432165</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.472413914912039</v>
+        <v>0.7609230322350697</v>
       </c>
       <c r="P5">
-        <v>0.925062369250778</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.4712756947611965</v>
+      </c>
+      <c r="R5">
+        <v>0.8817067677317496</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6571588830285009</v>
+        <v>0.6223431009812828</v>
       </c>
       <c r="C6">
-        <v>0.1348615921304912</v>
+        <v>0.15200483720146</v>
       </c>
       <c r="D6">
-        <v>0.04233566476685979</v>
+        <v>0.04414739279114599</v>
       </c>
       <c r="E6">
-        <v>0.2689233174384782</v>
+        <v>0.2713334654477677</v>
       </c>
       <c r="F6">
-        <v>0.6276595700664487</v>
+        <v>0.5829485989698284</v>
       </c>
       <c r="G6">
-        <v>0.5536254819423476</v>
+        <v>0.4876526598751667</v>
       </c>
       <c r="H6">
-        <v>0.0001960003244660946</v>
+        <v>0.0001466954421696087</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4280365113982327</v>
+        <v>0.431124662038826</v>
       </c>
       <c r="K6">
-        <v>0.383564780020361</v>
+        <v>0.3415691562240326</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1926266280029409</v>
       </c>
       <c r="M6">
-        <v>0.7619787322917375</v>
+        <v>0.07837210753569224</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.4690715973530217</v>
+        <v>0.7555404450264405</v>
       </c>
       <c r="P6">
-        <v>0.9264803057857982</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.4679611812263218</v>
+      </c>
+      <c r="R6">
+        <v>0.8831166885551891</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6902155563332144</v>
+        <v>0.6514345144173319</v>
       </c>
       <c r="C7">
-        <v>0.1415265842681066</v>
+        <v>0.1598598292249278</v>
       </c>
       <c r="D7">
-        <v>0.04339290089016146</v>
+        <v>0.04562284519613513</v>
       </c>
       <c r="E7">
-        <v>0.2815980559145501</v>
+        <v>0.2839836549936336</v>
       </c>
       <c r="F7">
-        <v>0.6410000335677282</v>
+        <v>0.5928009284185123</v>
       </c>
       <c r="G7">
-        <v>0.5646500963840566</v>
+        <v>0.4990648305704184</v>
       </c>
       <c r="H7">
-        <v>9.032296736743994E-05</v>
+        <v>6.224926348474824E-05</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4316145854339624</v>
+        <v>0.4292486762714418</v>
       </c>
       <c r="K7">
-        <v>0.3864331782164285</v>
+        <v>0.3424417837037517</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1913625659390341</v>
       </c>
       <c r="M7">
-        <v>0.8002240819489543</v>
+        <v>0.07965370066562194</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.4922742784039968</v>
+        <v>0.7918194678539408</v>
       </c>
       <c r="P7">
-        <v>0.9167078201695205</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.490731696183218</v>
+      </c>
+      <c r="R7">
+        <v>0.872849899078231</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8363597271665526</v>
+        <v>0.7805576695870116</v>
       </c>
       <c r="C8">
-        <v>0.1710022978708281</v>
+        <v>0.195793297712342</v>
       </c>
       <c r="D8">
-        <v>0.04800547247415921</v>
+        <v>0.05188575215034064</v>
       </c>
       <c r="E8">
-        <v>0.3375841910962762</v>
+        <v>0.3396312507063683</v>
       </c>
       <c r="F8">
-        <v>0.7018384129064899</v>
+        <v>0.6405085686377063</v>
       </c>
       <c r="G8">
-        <v>0.6151362862658374</v>
+        <v>0.5445758946928976</v>
       </c>
       <c r="H8">
-        <v>9.286766478511232E-05</v>
+        <v>0.0001027847870205267</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4485295782358492</v>
+        <v>0.4332527847757746</v>
       </c>
       <c r="K8">
-        <v>0.4002672306377235</v>
+        <v>0.3484735556483969</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1866701751539566</v>
       </c>
       <c r="M8">
-        <v>0.9693131495461387</v>
+        <v>0.08721334951440696</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.5947923878000552</v>
+        <v>0.9541838551461694</v>
       </c>
       <c r="P8">
-        <v>0.8753458402466698</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.5917556210794572</v>
+      </c>
+      <c r="R8">
+        <v>0.8303432480686013</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.124676047788114</v>
+        <v>1.035032058136181</v>
       </c>
       <c r="C9">
-        <v>0.2292270671181598</v>
+        <v>0.2692649971374976</v>
       </c>
       <c r="D9">
-        <v>0.05686645839730886</v>
+        <v>0.0636765607428984</v>
       </c>
       <c r="E9">
-        <v>0.4479117744513275</v>
+        <v>0.4487468251388123</v>
       </c>
       <c r="F9">
-        <v>0.829221602789886</v>
+        <v>0.7448716817047938</v>
       </c>
       <c r="G9">
-        <v>0.7217075029193296</v>
+        <v>0.6290970658556745</v>
       </c>
       <c r="H9">
-        <v>0.00200238696979449</v>
+        <v>0.001871309718203706</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.4861821336536707</v>
+        <v>0.462623302403415</v>
       </c>
       <c r="K9">
-        <v>0.4320994099404842</v>
+        <v>0.3658112884539193</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1791667465007443</v>
       </c>
       <c r="M9">
-        <v>1.302967923860592</v>
+        <v>0.1086196113228155</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.7967840222232425</v>
+        <v>1.277393944091017</v>
       </c>
       <c r="P9">
-        <v>0.8009835553369768</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.7913466310729973</v>
+      </c>
+      <c r="R9">
+        <v>0.754836039026106</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.337662913012309</v>
+        <v>1.219526228638614</v>
       </c>
       <c r="C10">
-        <v>0.270724830841317</v>
+        <v>0.3187580645209209</v>
       </c>
       <c r="D10">
-        <v>0.0641642546633463</v>
+        <v>0.07392703346966556</v>
       </c>
       <c r="E10">
-        <v>0.4972961852108924</v>
+        <v>0.4975638418035047</v>
       </c>
       <c r="F10">
-        <v>0.9174196390715821</v>
+        <v>0.8085627611240511</v>
       </c>
       <c r="G10">
-        <v>0.7933502560750441</v>
+        <v>0.7045760635967611</v>
       </c>
       <c r="H10">
-        <v>0.004689571083765998</v>
+        <v>0.004292783192187066</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.5109268319780256</v>
+        <v>0.4500290044718014</v>
       </c>
       <c r="K10">
-        <v>0.4524091824113938</v>
+        <v>0.3720700269849075</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1709090695427022</v>
       </c>
       <c r="M10">
-        <v>1.547301288194234</v>
+        <v>0.1246820846671639</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.9132242912639157</v>
+        <v>1.506860022697538</v>
       </c>
       <c r="P10">
-        <v>0.7451125563679355</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.9045406754854568</v>
+      </c>
+      <c r="R10">
+        <v>0.6972472146630793</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.429286513944191</v>
+        <v>1.302139050729068</v>
       </c>
       <c r="C11">
-        <v>0.2746635940535782</v>
+        <v>0.3150503624987095</v>
       </c>
       <c r="D11">
-        <v>0.0758780743402383</v>
+        <v>0.08868012394165703</v>
       </c>
       <c r="E11">
-        <v>0.281118347483158</v>
+        <v>0.2811803299922033</v>
       </c>
       <c r="F11">
-        <v>0.861722643020812</v>
+        <v>0.7431613865086462</v>
       </c>
       <c r="G11">
-        <v>0.7230946821450317</v>
+        <v>0.6814298863519923</v>
       </c>
       <c r="H11">
-        <v>0.02255270578343982</v>
+        <v>0.02211708973914028</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4709248420554104</v>
+        <v>0.3600204942587197</v>
       </c>
       <c r="K11">
-        <v>0.408041799009851</v>
+        <v>0.3278242239723923</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1508729151336041</v>
       </c>
       <c r="M11">
-        <v>1.632648706742259</v>
+        <v>0.1129608788758034</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.6989810985645661</v>
+        <v>1.576439208406384</v>
       </c>
       <c r="P11">
-        <v>0.6780236171255432</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.6888502831405106</v>
+      </c>
+      <c r="R11">
+        <v>0.6461167341418799</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.461553409497441</v>
+        <v>1.334999766391377</v>
       </c>
       <c r="C12">
-        <v>0.2692016007066513</v>
+        <v>0.3034140896612882</v>
       </c>
       <c r="D12">
-        <v>0.08509912657175533</v>
+        <v>0.09945368530271281</v>
       </c>
       <c r="E12">
-        <v>0.1449453532021394</v>
+        <v>0.1442796218091686</v>
       </c>
       <c r="F12">
-        <v>0.7968346616692088</v>
+        <v>0.6806082032334331</v>
       </c>
       <c r="G12">
-        <v>0.6508148096277324</v>
+        <v>0.6340930612394828</v>
       </c>
       <c r="H12">
-        <v>0.06050349566420721</v>
+        <v>0.06009848376530158</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4326944626774321</v>
+        <v>0.3105278595927174</v>
       </c>
       <c r="K12">
-        <v>0.3676793911651686</v>
+        <v>0.2931192892821635</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1375010522636906</v>
       </c>
       <c r="M12">
-        <v>1.652628414249506</v>
+        <v>0.100747795555403</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.519783362537602</v>
+        <v>1.590343617150324</v>
       </c>
       <c r="P12">
-        <v>0.6420417994446712</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.5103157866931554</v>
+      </c>
+      <c r="R12">
+        <v>0.6260502793175169</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.449639252942944</v>
+        <v>1.332673922023787</v>
       </c>
       <c r="C13">
-        <v>0.2562349707816196</v>
+        <v>0.2862284401495856</v>
       </c>
       <c r="D13">
-        <v>0.09280320750515614</v>
+        <v>0.1070309131927729</v>
       </c>
       <c r="E13">
-        <v>0.06210366124445343</v>
+        <v>0.0605184867012607</v>
       </c>
       <c r="F13">
-        <v>0.7210203354379843</v>
+        <v>0.6186661049572635</v>
       </c>
       <c r="G13">
-        <v>0.5727239674550475</v>
+        <v>0.5589343564536478</v>
       </c>
       <c r="H13">
-        <v>0.1154651923345256</v>
+        <v>0.115139753615324</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3935113446096921</v>
+        <v>0.2906242889523512</v>
       </c>
       <c r="K13">
-        <v>0.3279184043958736</v>
+        <v>0.2642135837836008</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1280317732195222</v>
       </c>
       <c r="M13">
-        <v>1.623212523179859</v>
+        <v>0.08810443368693655</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.3582090118911623</v>
+        <v>1.565047318620344</v>
       </c>
       <c r="P13">
-        <v>0.6267542431201705</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3509588350041426</v>
+      </c>
+      <c r="R13">
+        <v>0.6252743111107684</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.421366756669215</v>
+        <v>1.315087912988844</v>
       </c>
       <c r="C14">
-        <v>0.2438661074859709</v>
+        <v>0.2716834029718029</v>
       </c>
       <c r="D14">
-        <v>0.09753645429113789</v>
+        <v>0.1108297151083519</v>
       </c>
       <c r="E14">
-        <v>0.03582354649930464</v>
+        <v>0.03372920853002759</v>
       </c>
       <c r="F14">
-        <v>0.6636278712502914</v>
+        <v>0.5753796679915908</v>
       </c>
       <c r="G14">
-        <v>0.5162270545587404</v>
+        <v>0.4963070522335471</v>
       </c>
       <c r="H14">
-        <v>0.1642810098536387</v>
+        <v>0.1640227094162157</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3659869414414487</v>
+        <v>0.2873133662766421</v>
       </c>
       <c r="K14">
-        <v>0.3007624212751416</v>
+        <v>0.2464178478426824</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1229023368230422</v>
       </c>
       <c r="M14">
-        <v>1.580429063342876</v>
+        <v>0.07920363255650642</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.2576009152165319</v>
+        <v>1.529558649327441</v>
       </c>
       <c r="P14">
-        <v>0.6262441920194739</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2522569971305515</v>
+      </c>
+      <c r="R14">
+        <v>0.6328835249476636</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.40506668812273</v>
+        <v>1.303145193148964</v>
       </c>
       <c r="C15">
-        <v>0.2392800609286496</v>
+        <v>0.2668419657154857</v>
       </c>
       <c r="D15">
-        <v>0.09822783379349431</v>
+        <v>0.110936559032929</v>
       </c>
       <c r="E15">
-        <v>0.03347649401835401</v>
+        <v>0.03133919488716019</v>
       </c>
       <c r="F15">
-        <v>0.6473100356743728</v>
+        <v>0.5644353015186283</v>
       </c>
       <c r="G15">
-        <v>0.5010355609983606</v>
+        <v>0.4764411825277648</v>
       </c>
       <c r="H15">
-        <v>0.1765999105846134</v>
+        <v>0.1763677004725395</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3590160278224914</v>
+        <v>0.2909179875052459</v>
       </c>
       <c r="K15">
-        <v>0.2941278718209865</v>
+        <v>0.2428804078500981</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.12221827699031</v>
       </c>
       <c r="M15">
-        <v>1.559567215792185</v>
+        <v>0.07688603802537131</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.2337442252717068</v>
+        <v>1.512377819740323</v>
       </c>
       <c r="P15">
-        <v>0.6292434670043603</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2290229527493004</v>
+      </c>
+      <c r="R15">
+        <v>0.637108066229807</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.3154285895763</v>
+        <v>1.228863758886547</v>
       </c>
       <c r="C16">
-        <v>0.2243746621347071</v>
+        <v>0.2537730653668717</v>
       </c>
       <c r="D16">
-        <v>0.09317167919557079</v>
+        <v>0.1029784708440786</v>
       </c>
       <c r="E16">
-        <v>0.03222335586721187</v>
+        <v>0.03065110913388636</v>
       </c>
       <c r="F16">
-        <v>0.6252519678504456</v>
+        <v>0.5593692326233395</v>
       </c>
       <c r="G16">
-        <v>0.4866827397693072</v>
+        <v>0.4361288939642805</v>
       </c>
       <c r="H16">
-        <v>0.1630786147478176</v>
+        <v>0.1629456917659269</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3563992490670671</v>
+        <v>0.3309183615507294</v>
       </c>
       <c r="K16">
-        <v>0.2934526620108855</v>
+        <v>0.2496654976549237</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1275398068758591</v>
       </c>
       <c r="M16">
-        <v>1.46051172992793</v>
+        <v>0.07498784277533233</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.2222991485609036</v>
+        <v>1.429282274256366</v>
       </c>
       <c r="P16">
-        <v>0.6536154509386529</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2192047838667222</v>
+      </c>
+      <c r="R16">
+        <v>0.6565007782284464</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.261898062972165</v>
+        <v>1.180452282393787</v>
       </c>
       <c r="C17">
-        <v>0.2194756526282475</v>
+        <v>0.2507412867315111</v>
       </c>
       <c r="D17">
-        <v>0.08678231044964946</v>
+        <v>0.09526134019449728</v>
       </c>
       <c r="E17">
-        <v>0.03975559743396584</v>
+        <v>0.03863503826384385</v>
       </c>
       <c r="F17">
-        <v>0.6387610600793181</v>
+        <v>0.5772661593281327</v>
       </c>
       <c r="G17">
-        <v>0.5054840373609863</v>
+        <v>0.441232511422001</v>
       </c>
       <c r="H17">
-        <v>0.1249562002937665</v>
+        <v>0.1248604926608721</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3689885713055219</v>
+        <v>0.3610356217860016</v>
       </c>
       <c r="K17">
-        <v>0.3073023458323796</v>
+        <v>0.2640071813416114</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.134568127384</v>
       </c>
       <c r="M17">
-        <v>1.407414569692548</v>
+        <v>0.0778936850931089</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.2636300487200067</v>
+        <v>1.382676862864457</v>
       </c>
       <c r="P17">
-        <v>0.6725026522195277</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2609152340398886</v>
+      </c>
+      <c r="R17">
+        <v>0.6689713672996884</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.233115708122853</v>
+        <v>1.150030139610237</v>
       </c>
       <c r="C18">
-        <v>0.2226427235320898</v>
+        <v>0.2571434138116047</v>
       </c>
       <c r="D18">
-        <v>0.07888140546069167</v>
+        <v>0.08679973671100782</v>
       </c>
       <c r="E18">
-        <v>0.0830279674721055</v>
+        <v>0.08229552663164341</v>
       </c>
       <c r="F18">
-        <v>0.6849565833983036</v>
+        <v>0.6200946325507033</v>
       </c>
       <c r="G18">
-        <v>0.5561990306710527</v>
+        <v>0.4800412858785279</v>
       </c>
       <c r="H18">
-        <v>0.0721910460463917</v>
+        <v>0.0720964755323692</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3965693011221703</v>
+        <v>0.3934875355384975</v>
       </c>
       <c r="K18">
-        <v>0.3359923109383054</v>
+        <v>0.2882722775593827</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1446106162949583</v>
       </c>
       <c r="M18">
-        <v>1.38747949218731</v>
+        <v>0.08574841638844433</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.3683528437062336</v>
+        <v>1.364553110371475</v>
       </c>
       <c r="P18">
-        <v>0.6929864527426171</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3653124841365383</v>
+      </c>
+      <c r="R18">
+        <v>0.6803796802998336</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.226328723886809</v>
+        <v>1.136903053797312</v>
       </c>
       <c r="C19">
-        <v>0.2322311353629658</v>
+        <v>0.2713611112568799</v>
       </c>
       <c r="D19">
-        <v>0.07081791191257025</v>
+        <v>0.07858907219343791</v>
       </c>
       <c r="E19">
-        <v>0.1933711819914521</v>
+        <v>0.1929873457918561</v>
       </c>
       <c r="F19">
-        <v>0.7556999213699243</v>
+        <v>0.6821497295334353</v>
       </c>
       <c r="G19">
-        <v>0.6315241701331473</v>
+        <v>0.5429252686429606</v>
       </c>
       <c r="H19">
-        <v>0.0275299505403126</v>
+        <v>0.0274012764403011</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.4352783694549061</v>
+        <v>0.4295012974401402</v>
       </c>
       <c r="K19">
-        <v>0.3760472325112119</v>
+        <v>0.3203076725515892</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1568852862991683</v>
       </c>
       <c r="M19">
-        <v>1.395657491151582</v>
+        <v>0.09762226945071717</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.5374690596351712</v>
+        <v>1.371716310402832</v>
       </c>
       <c r="P19">
-        <v>0.7194333798594528</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.5335456635721911</v>
+      </c>
+      <c r="R19">
+        <v>0.6950116350084921</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.281560632818611</v>
+        <v>1.172961371353836</v>
       </c>
       <c r="C20">
-        <v>0.2597225543227353</v>
+        <v>0.3074443575861494</v>
       </c>
       <c r="D20">
-        <v>0.06228792052552024</v>
+        <v>0.07083190010828844</v>
       </c>
       <c r="E20">
-        <v>0.4829235848255564</v>
+        <v>0.4830137544345448</v>
       </c>
       <c r="F20">
-        <v>0.8933542633667031</v>
+        <v>0.7958441089997876</v>
       </c>
       <c r="G20">
-        <v>0.7736171999581529</v>
+        <v>0.6723572999875955</v>
       </c>
       <c r="H20">
-        <v>0.00386505318761543</v>
+        <v>0.003561338031483174</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.5039433571996454</v>
+        <v>0.4716164677472534</v>
       </c>
       <c r="K20">
-        <v>0.4465612814873339</v>
+        <v>0.3723250192185432</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1737589513111431</v>
       </c>
       <c r="M20">
-        <v>1.482843908547267</v>
+        <v>0.1210534287761433</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.881230183719687</v>
+        <v>1.450437668833501</v>
       </c>
       <c r="P20">
-        <v>0.7591731677622953</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.8743025795049633</v>
+      </c>
+      <c r="R20">
+        <v>0.7133431563494774</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.44683332363698</v>
+        <v>1.304019192262928</v>
       </c>
       <c r="C21">
-        <v>0.2944481237389027</v>
+        <v>0.3397564950602145</v>
       </c>
       <c r="D21">
-        <v>0.06647818243811798</v>
+        <v>0.07962104543127424</v>
       </c>
       <c r="E21">
-        <v>0.5711551695254968</v>
+        <v>0.5727123679637174</v>
       </c>
       <c r="F21">
-        <v>0.9807265176048787</v>
+        <v>0.8361412899017751</v>
       </c>
       <c r="G21">
-        <v>0.8495882921949658</v>
+        <v>0.8123940364933304</v>
       </c>
       <c r="H21">
-        <v>0.006586788687220291</v>
+        <v>0.005922555150259079</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.5334912742977878</v>
+        <v>0.3793620440701915</v>
       </c>
       <c r="K21">
-        <v>0.4732864671572656</v>
+        <v>0.3735559002918833</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1662082500023807</v>
       </c>
       <c r="M21">
-        <v>1.675969577175067</v>
+        <v>0.1327100634492098</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.022121452627125</v>
+        <v>1.609804777674668</v>
       </c>
       <c r="P21">
-        <v>0.7268268017053359</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.007460612720642</v>
+      </c>
+      <c r="R21">
+        <v>0.6684591306989027</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.555107232819893</v>
+        <v>1.38911022219304</v>
       </c>
       <c r="C22">
-        <v>0.3164135088652245</v>
+        <v>0.3589386324401289</v>
       </c>
       <c r="D22">
-        <v>0.06965182805825521</v>
+        <v>0.08613200734484394</v>
       </c>
       <c r="E22">
-        <v>0.6125876696541397</v>
+        <v>0.6152749493704235</v>
       </c>
       <c r="F22">
-        <v>1.033488764946469</v>
+        <v>0.8563722443758621</v>
       </c>
       <c r="G22">
-        <v>0.8943569118464438</v>
+        <v>0.9087898927878086</v>
       </c>
       <c r="H22">
-        <v>0.008632333946142406</v>
+        <v>0.007682261508185739</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.5504276795233807</v>
+        <v>0.3204949177589498</v>
       </c>
       <c r="K22">
-        <v>0.4882519039421211</v>
+        <v>0.3713653809010538</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.16036208497923</v>
       </c>
       <c r="M22">
-        <v>1.801385747853516</v>
+        <v>0.139429097986735</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.097772480492978</v>
+        <v>1.710965303633031</v>
       </c>
       <c r="P22">
-        <v>0.703686585070308</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.077589290372124</v>
+      </c>
+      <c r="R22">
+        <v>0.6380812266849727</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.497259366694806</v>
+        <v>1.345093775788541</v>
       </c>
       <c r="C23">
-        <v>0.3046749845347279</v>
+        <v>0.350058977785153</v>
       </c>
       <c r="D23">
-        <v>0.0679595148736567</v>
+        <v>0.08230780116853964</v>
       </c>
       <c r="E23">
-        <v>0.5904502562305396</v>
+        <v>0.5922564142165001</v>
       </c>
       <c r="F23">
-        <v>1.005191578051637</v>
+        <v>0.8490049867187537</v>
       </c>
       <c r="G23">
-        <v>0.8703330817056383</v>
+        <v>0.8474829556725751</v>
       </c>
       <c r="H23">
-        <v>0.007509640224589109</v>
+        <v>0.00672653944606455</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.5413188638161159</v>
+        <v>0.3618365026314194</v>
       </c>
       <c r="K23">
-        <v>0.4801908016042162</v>
+        <v>0.3741636663540504</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1640185246143062</v>
       </c>
       <c r="M23">
-        <v>1.734375596066002</v>
+        <v>0.136498996854197</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.0573593113198</v>
+        <v>1.659965579978092</v>
       </c>
       <c r="P23">
-        <v>0.7159458515775228</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.040812875462251</v>
+      </c>
+      <c r="R23">
+        <v>0.6551732733521156</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.279392055893226</v>
+        <v>1.170373819492539</v>
       </c>
       <c r="C24">
-        <v>0.2605255478317474</v>
+        <v>0.3087700112526761</v>
       </c>
       <c r="D24">
-        <v>0.0615160082141557</v>
+        <v>0.06998871355165193</v>
       </c>
       <c r="E24">
-        <v>0.5070959945878357</v>
+        <v>0.5072163806374661</v>
       </c>
       <c r="F24">
-        <v>0.9009021747437629</v>
+        <v>0.8026417499543754</v>
       </c>
       <c r="G24">
-        <v>0.7820781930426932</v>
+        <v>0.6790050779969334</v>
       </c>
       <c r="H24">
-        <v>0.003910616052127058</v>
+        <v>0.003599452875045817</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.5082921448182702</v>
+        <v>0.4763593738013014</v>
       </c>
       <c r="K24">
-        <v>0.4512204617483491</v>
+        <v>0.3761567687511302</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1752925763395652</v>
       </c>
       <c r="M24">
-        <v>1.482073739993638</v>
+        <v>0.1223948993772481</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.9050485137812245</v>
+        <v>1.449760252570798</v>
       </c>
       <c r="P24">
-        <v>0.7643229475598439</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.8980300450961991</v>
+      </c>
+      <c r="R24">
+        <v>0.7169428703697527</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.046416076611393</v>
+        <v>0.9669368960173301</v>
       </c>
       <c r="C25">
-        <v>0.2134107281853517</v>
+        <v>0.2499528044102846</v>
       </c>
       <c r="D25">
-        <v>0.0544884159984278</v>
+        <v>0.06032927662344889</v>
       </c>
       <c r="E25">
-        <v>0.4179727777964004</v>
+        <v>0.4190291028550561</v>
       </c>
       <c r="F25">
-        <v>0.7937952142502098</v>
+        <v>0.7178069170050136</v>
       </c>
       <c r="G25">
-        <v>0.6919695905617971</v>
+        <v>0.600883300568924</v>
       </c>
       <c r="H25">
-        <v>0.001260228065086633</v>
+        <v>0.001195806561864021</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.4754722915864704</v>
+        <v>0.4621430814395922</v>
       </c>
       <c r="K25">
-        <v>0.422936669806063</v>
+        <v>0.3616768044815224</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1814975966726458</v>
       </c>
       <c r="M25">
-        <v>1.21238847742535</v>
+        <v>0.1025077777965464</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.7419873746708703</v>
+        <v>1.191366043453968</v>
       </c>
       <c r="P25">
-        <v>0.8203370590058192</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0.7375890793581164</v>
+      </c>
+      <c r="R25">
+        <v>0.7752658311171317</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
